--- a/Financial Analysis/GM.xlsx
+++ b/Financial Analysis/GM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87397C84-FF6D-4CCB-AD16-E53C5B560D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C5BFF-D5EA-42FF-A29C-24FB572C721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5DBB63C4-9B1E-4218-AE7C-1A44CF0A90A8}"/>
   </bookViews>
@@ -312,8 +312,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -407,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,6 +427,7 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,7 +850,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,17 +879,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="9">
-        <v>45.55</v>
+        <v>45.63</v>
       </c>
       <c r="E3" s="11">
-        <v>45771</v>
+        <v>45782</v>
       </c>
       <c r="F3" s="11">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45782</v>
       </c>
       <c r="G3" s="11">
-        <v>45776</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -895,11 +897,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f>995</f>
-        <v>995</v>
+        <f>961.4</f>
+        <v>961.4</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -908,7 +910,7 @@
       </c>
       <c r="D5" s="5">
         <f>D3*D4</f>
-        <v>45322.25</v>
+        <v>43868.682000000001</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -916,11 +918,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <f>19872+7265</f>
-        <v>27137</v>
+        <f>20570+6919</f>
+        <v>27489</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -928,11 +930,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="5">
-        <f>2141+37291+13327+76973</f>
-        <v>129732</v>
+        <f>2166+33768+13474+83270</f>
+        <v>132678</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -941,7 +943,7 @@
       </c>
       <c r="D8" s="5">
         <f>D6-D7</f>
-        <v>-102595</v>
+        <v>-105189</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -950,7 +952,7 @@
       </c>
       <c r="D9" s="5">
         <f>D5-D8</f>
-        <v>147917.25</v>
+        <v>149057.682</v>
       </c>
     </row>
   </sheetData>
@@ -964,10 +966,10 @@
   <dimension ref="B2:EB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT25" sqref="AT25"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,11 +1190,15 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
+      <c r="AA3" s="4">
+        <v>43014</v>
+      </c>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
+      <c r="AE3" s="4">
+        <v>44020</v>
+      </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
@@ -1319,11 +1325,15 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="5">
+        <v>33996</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="AE4" s="5">
+        <v>35191</v>
+      </c>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
@@ -1459,40 +1469,46 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4">
+        <f t="shared" ref="AA5" si="9">AA3-AA4</f>
+        <v>9018</v>
+      </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
+      <c r="AE5" s="4">
+        <f t="shared" ref="AE5" si="10">AE3-AE4</f>
+        <v>8829</v>
+      </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AJ5" s="4">
-        <f t="shared" ref="AJ5:AP5" si="9">AJ3-AJ4</f>
+        <f t="shared" ref="AJ5:AP5" si="11">AJ3-AJ4</f>
         <v>26393</v>
       </c>
       <c r="AK5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26586</v>
       </c>
       <c r="AL5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24946</v>
       </c>
       <c r="AM5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26460</v>
       </c>
       <c r="AN5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29843</v>
       </c>
       <c r="AO5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30512</v>
       </c>
       <c r="AP5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36377</v>
       </c>
       <c r="AQ5" s="4">
@@ -1500,43 +1516,43 @@
         <v>35970.1198</v>
       </c>
       <c r="AR5" s="4">
-        <f t="shared" ref="AR5:BA5" si="10">AR3*0.19</f>
+        <f t="shared" ref="AR5:BA5" si="12">AR3*0.19</f>
         <v>36329.820998000003</v>
       </c>
       <c r="AS5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>36693.119207980002</v>
       </c>
       <c r="AT5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37060.050400059801</v>
       </c>
       <c r="AU5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37430.650904060407</v>
       </c>
       <c r="AV5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37804.957413101009</v>
       </c>
       <c r="AW5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38183.006987232016</v>
       </c>
       <c r="AX5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38564.837057104342</v>
       </c>
       <c r="AY5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38950.485427675383</v>
       </c>
       <c r="AZ5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39339.990281952138</v>
       </c>
       <c r="BA5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39733.390184771655</v>
       </c>
     </row>
@@ -1595,11 +1611,15 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="5">
+        <v>3106</v>
+      </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="5">
+        <v>3491</v>
+      </c>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
@@ -1631,43 +1651,43 @@
         <v>13101.72</v>
       </c>
       <c r="AR6" s="5">
-        <f t="shared" ref="AR6:AV6" si="11">AQ6*1.01</f>
+        <f t="shared" ref="AR6:AV6" si="13">AQ6*1.01</f>
         <v>13232.7372</v>
       </c>
       <c r="AS6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13365.064571999999</v>
       </c>
       <c r="AT6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13498.715217719999</v>
       </c>
       <c r="AU6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13633.702369897199</v>
       </c>
       <c r="AV6" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13770.039393596171</v>
       </c>
       <c r="AW6" s="5">
-        <f t="shared" ref="AW6:AW7" si="12">AV6*1.01</f>
+        <f t="shared" ref="AW6:AW7" si="14">AV6*1.01</f>
         <v>13907.739787532133</v>
       </c>
       <c r="AX6" s="5">
-        <f t="shared" ref="AX6:AX7" si="13">AW6*1.01</f>
+        <f t="shared" ref="AX6:AX7" si="15">AW6*1.01</f>
         <v>14046.817185407455</v>
       </c>
       <c r="AY6" s="5">
-        <f t="shared" ref="AY6:AY7" si="14">AX6*1.01</f>
+        <f t="shared" ref="AY6:AY7" si="16">AX6*1.01</f>
         <v>14187.285357261529</v>
       </c>
       <c r="AZ6" s="5">
-        <f t="shared" ref="AZ6:AZ7" si="15">AY6*1.01</f>
+        <f t="shared" ref="AZ6:AZ7" si="17">AY6*1.01</f>
         <v>14329.158210834144</v>
       </c>
       <c r="BA6" s="5">
-        <f t="shared" ref="BA6:BA7" si="16">AZ6*1.01</f>
+        <f t="shared" ref="BA6:BA7" si="18">AZ6*1.01</f>
         <v>14472.449792942487</v>
       </c>
     </row>
@@ -1725,11 +1745,15 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="5">
+        <v>2175</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="AE7" s="5">
+        <v>1985</v>
+      </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -1761,43 +1785,43 @@
         <v>10727.210000000001</v>
       </c>
       <c r="AR7" s="5">
-        <f t="shared" ref="AR7:AV7" si="17">AQ7*1.01</f>
+        <f t="shared" ref="AR7:AV7" si="19">AQ7*1.01</f>
         <v>10834.482100000001</v>
       </c>
       <c r="AS7" s="5">
+        <f t="shared" si="19"/>
+        <v>10942.826921000002</v>
+      </c>
+      <c r="AT7" s="5">
+        <f t="shared" si="19"/>
+        <v>11052.255190210002</v>
+      </c>
+      <c r="AU7" s="5">
+        <f t="shared" si="19"/>
+        <v>11162.777742112103</v>
+      </c>
+      <c r="AV7" s="5">
+        <f t="shared" si="19"/>
+        <v>11274.405519533224</v>
+      </c>
+      <c r="AW7" s="5">
+        <f t="shared" si="14"/>
+        <v>11387.149574728557</v>
+      </c>
+      <c r="AX7" s="5">
+        <f t="shared" si="15"/>
+        <v>11501.021070475843</v>
+      </c>
+      <c r="AY7" s="5">
+        <f t="shared" si="16"/>
+        <v>11616.031281180602</v>
+      </c>
+      <c r="AZ7" s="5">
         <f t="shared" si="17"/>
-        <v>10942.826921000002</v>
-      </c>
-      <c r="AT7" s="5">
-        <f t="shared" si="17"/>
-        <v>11052.255190210002</v>
-      </c>
-      <c r="AU7" s="5">
-        <f t="shared" si="17"/>
-        <v>11162.777742112103</v>
-      </c>
-      <c r="AV7" s="5">
-        <f t="shared" si="17"/>
-        <v>11274.405519533224</v>
-      </c>
-      <c r="AW7" s="5">
-        <f t="shared" si="12"/>
-        <v>11387.149574728557</v>
-      </c>
-      <c r="AX7" s="5">
-        <f t="shared" si="13"/>
-        <v>11501.021070475843</v>
-      </c>
-      <c r="AY7" s="5">
-        <f t="shared" si="14"/>
-        <v>11616.031281180602</v>
-      </c>
-      <c r="AZ7" s="5">
-        <f t="shared" si="15"/>
         <v>11732.191593992407</v>
       </c>
       <c r="BA7" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11849.513509932332</v>
       </c>
     </row>
@@ -1806,43 +1830,43 @@
         <v>25</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:L8" si="18">C5-C6-C7</f>
+        <f t="shared" ref="C8:L8" si="20">C5-C6-C7</f>
         <v>529</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1477</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1610</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>829</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1244</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2487</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2304</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-554</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>657</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-1214</v>
       </c>
       <c r="M8" s="4">
@@ -1865,11 +1889,17 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4">
+        <f>AA5-AA6-AA7</f>
+        <v>3737</v>
+      </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="AE8" s="4">
+        <f>AE5-AE6-AE7</f>
+        <v>3353</v>
+      </c>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
@@ -1882,7 +1912,7 @@
         <v>5481</v>
       </c>
       <c r="AL8" s="4">
-        <f t="shared" ref="AL8" si="19">AL5-AL6-AL7</f>
+        <f t="shared" ref="AL8" si="21">AL5-AL6-AL7</f>
         <v>6634</v>
       </c>
       <c r="AM8" s="4">
@@ -1902,47 +1932,47 @@
         <v>12784</v>
       </c>
       <c r="AQ8" s="4">
-        <f t="shared" ref="AQ8:AV8" si="20">AQ5-AQ6-AQ7</f>
+        <f t="shared" ref="AQ8:AV8" si="22">AQ5-AQ6-AQ7</f>
         <v>12141.189799999998</v>
       </c>
       <c r="AR8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12262.601698000002</v>
       </c>
       <c r="AS8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12385.227714980001</v>
       </c>
       <c r="AT8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12509.079992129802</v>
       </c>
       <c r="AU8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12634.170792051107</v>
       </c>
       <c r="AV8" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12760.512499971615</v>
       </c>
       <c r="AW8" s="4">
-        <f t="shared" ref="AW8:BA8" si="21">AW5-AW6-AW7</f>
+        <f t="shared" ref="AW8:BA8" si="23">AW5-AW6-AW7</f>
         <v>12888.117624971326</v>
       </c>
       <c r="AX8" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13016.998801221045</v>
       </c>
       <c r="AY8" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13147.168789233254</v>
       </c>
       <c r="AZ8" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13278.640477125584</v>
       </c>
       <c r="BA8" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13411.426881896836</v>
       </c>
     </row>
@@ -2009,11 +2039,15 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="AA9" s="5">
+        <v>219</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="AE9" s="5">
+        <v>-310</v>
+      </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -2045,43 +2079,43 @@
         <v>-1317.09</v>
       </c>
       <c r="AR9" s="5">
-        <f t="shared" ref="AR9:AV9" si="22">AQ9-AQ16*0.01</f>
+        <f t="shared" ref="AR9:AV9" si="24">AQ9-AQ16*0.01</f>
         <v>-1419.7963384</v>
       </c>
       <c r="AS9" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1525.3830476912001</v>
       </c>
       <c r="AT9" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1633.6663532425696</v>
       </c>
       <c r="AU9" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1744.5044230100486</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1857.7890410130829</v>
       </c>
       <c r="AW9" s="5">
-        <f t="shared" ref="AW9" si="23">AV9-AV16*0.01</f>
+        <f t="shared" ref="AW9" si="25">AV9-AV16*0.01</f>
         <v>-1973.4389468167308</v>
       </c>
       <c r="AX9" s="5">
-        <f t="shared" ref="AX9" si="24">AW9-AW16*0.01</f>
+        <f t="shared" ref="AX9" si="26">AW9-AW16*0.01</f>
         <v>-2091.3945078258835</v>
       </c>
       <c r="AY9" s="5">
-        <f t="shared" ref="AY9" si="25">AX9-AX16*0.01</f>
+        <f t="shared" ref="AY9" si="27">AX9-AX16*0.01</f>
         <v>-2211.6134578369115</v>
       </c>
       <c r="AZ9" s="5">
-        <f t="shared" ref="AZ9" si="26">AY9-AY16*0.01</f>
+        <f t="shared" ref="AZ9" si="28">AY9-AY16*0.01</f>
         <v>-2334.067488603077</v>
       </c>
       <c r="BA9" s="5">
-        <f t="shared" ref="BA9" si="27">AZ9-AZ16*0.01</f>
+        <f t="shared" ref="BA9" si="29">AZ9-AZ16*0.01</f>
         <v>-2458.7395238188583</v>
       </c>
     </row>
@@ -2139,11 +2173,15 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="AA10" s="5">
+        <v>-302</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="5">
+        <v>152</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
@@ -2175,43 +2213,43 @@
         <v>676.80000000000007</v>
       </c>
       <c r="AR10" s="5">
-        <f t="shared" ref="AR10:AV10" si="28">AQ10*0.8</f>
+        <f t="shared" ref="AR10:AV10" si="30">AQ10*0.8</f>
         <v>541.44000000000005</v>
       </c>
       <c r="AS10" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>433.15200000000004</v>
       </c>
       <c r="AT10" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>346.52160000000003</v>
       </c>
       <c r="AU10" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>277.21728000000002</v>
       </c>
       <c r="AV10" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>221.77382400000002</v>
       </c>
       <c r="AW10" s="5">
-        <f t="shared" ref="AW10" si="29">AV10*0.8</f>
+        <f t="shared" ref="AW10" si="31">AV10*0.8</f>
         <v>177.41905920000002</v>
       </c>
       <c r="AX10" s="5">
-        <f t="shared" ref="AX10" si="30">AW10*0.8</f>
+        <f t="shared" ref="AX10" si="32">AW10*0.8</f>
         <v>141.93524736000003</v>
       </c>
       <c r="AY10" s="5">
-        <f t="shared" ref="AY10" si="31">AX10*0.8</f>
+        <f t="shared" ref="AY10" si="33">AX10*0.8</f>
         <v>113.54819788800003</v>
       </c>
       <c r="AZ10" s="5">
-        <f t="shared" ref="AZ10" si="32">AY10*0.8</f>
+        <f t="shared" ref="AZ10" si="34">AY10*0.8</f>
         <v>90.838558310400032</v>
       </c>
       <c r="BA10" s="5">
-        <f t="shared" ref="BA10" si="33">AZ10*0.8</f>
+        <f t="shared" ref="BA10" si="35">AZ10*0.8</f>
         <v>72.670846648320023</v>
       </c>
     </row>
@@ -2267,16 +2305,20 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="AA11" s="5">
+        <v>105</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
+      <c r="AE11" s="5">
+        <v>-62</v>
+      </c>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AJ11" s="5">
-        <f t="shared" ref="AJ11" si="34">SUM(C11:F11)</f>
+        <f t="shared" ref="AJ11" si="36">SUM(C11:F11)</f>
         <v>-2596</v>
       </c>
       <c r="AK11" s="5">
@@ -2319,47 +2361,47 @@
         <v>-1047</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:N12" si="35">SUM(D9:D11)</f>
+        <f t="shared" ref="D12:N12" si="37">SUM(D9:D11)</f>
         <v>-1408</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1020</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-629</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1038</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-440</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-278</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-199</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-322</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-481</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-73</v>
       </c>
       <c r="O12" s="5"/>
@@ -2374,11 +2416,17 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="AA12" s="5">
+        <f t="shared" ref="AA12" si="38">SUM(AA9:AA11)</f>
+        <v>22</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
+      <c r="AE12" s="5">
+        <f t="shared" ref="AE12" si="39">SUM(AE9:AE11)</f>
+        <v>-220</v>
+      </c>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
@@ -2387,71 +2435,71 @@
         <v>-4104</v>
       </c>
       <c r="AK12" s="5">
-        <f t="shared" ref="AK12" si="36">SUM(AK9:AK11)</f>
+        <f t="shared" ref="AK12" si="40">SUM(AK9:AK11)</f>
         <v>-1955</v>
       </c>
       <c r="AL12" s="5">
-        <f t="shared" ref="AL12:AP12" si="37">SUM(AL9:AL11)</f>
+        <f t="shared" ref="AL12:AP12" si="41">SUM(AL9:AL11)</f>
         <v>-1461</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-3392</v>
       </c>
       <c r="AN12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-1282</v>
       </c>
       <c r="AO12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>-1106</v>
       </c>
       <c r="AP12" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4264</v>
       </c>
       <c r="AQ12" s="5">
-        <f t="shared" ref="AQ12" si="38">SUM(AQ9:AQ11)</f>
+        <f t="shared" ref="AQ12" si="42">SUM(AQ9:AQ11)</f>
         <v>-640.28999999999985</v>
       </c>
       <c r="AR12" s="5">
-        <f t="shared" ref="AR12" si="39">SUM(AR9:AR11)</f>
+        <f t="shared" ref="AR12" si="43">SUM(AR9:AR11)</f>
         <v>-878.35633839999991</v>
       </c>
       <c r="AS12" s="5">
-        <f t="shared" ref="AS12" si="40">SUM(AS9:AS11)</f>
+        <f t="shared" ref="AS12" si="44">SUM(AS9:AS11)</f>
         <v>-1092.2310476912</v>
       </c>
       <c r="AT12" s="5">
-        <f t="shared" ref="AT12" si="41">SUM(AT9:AT11)</f>
+        <f t="shared" ref="AT12" si="45">SUM(AT9:AT11)</f>
         <v>-1287.1447532425695</v>
       </c>
       <c r="AU12" s="5">
-        <f t="shared" ref="AU12" si="42">SUM(AU9:AU11)</f>
+        <f t="shared" ref="AU12" si="46">SUM(AU9:AU11)</f>
         <v>-1467.2871430100486</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" ref="AV12" si="43">SUM(AV9:AV11)</f>
+        <f t="shared" ref="AV12" si="47">SUM(AV9:AV11)</f>
         <v>-1636.0152170130827</v>
       </c>
       <c r="AW12" s="5">
-        <f t="shared" ref="AW12" si="44">SUM(AW9:AW11)</f>
+        <f t="shared" ref="AW12" si="48">SUM(AW9:AW11)</f>
         <v>-1796.0198876167308</v>
       </c>
       <c r="AX12" s="5">
-        <f t="shared" ref="AX12" si="45">SUM(AX9:AX11)</f>
+        <f t="shared" ref="AX12" si="49">SUM(AX9:AX11)</f>
         <v>-1949.4592604658835</v>
       </c>
       <c r="AY12" s="5">
-        <f t="shared" ref="AY12" si="46">SUM(AY9:AY11)</f>
+        <f t="shared" ref="AY12" si="50">SUM(AY9:AY11)</f>
         <v>-2098.0652599489113</v>
       </c>
       <c r="AZ12" s="5">
-        <f t="shared" ref="AZ12" si="47">SUM(AZ9:AZ11)</f>
+        <f t="shared" ref="AZ12" si="51">SUM(AZ9:AZ11)</f>
         <v>-2243.228930292677</v>
       </c>
       <c r="BA12" s="5">
-        <f t="shared" ref="BA12" si="48">SUM(BA9:BA11)</f>
+        <f t="shared" ref="BA12" si="52">SUM(BA9:BA11)</f>
         <v>-2386.0686771705382</v>
       </c>
     </row>
@@ -2464,47 +2512,47 @@
         <v>1576</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:N13" si="49">D8-D12</f>
+        <f t="shared" ref="D13:N13" si="53">D8-D12</f>
         <v>2885</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2630</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1458</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2282</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2927</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2582</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-355</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>643</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-892</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>4905</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>3163.6278999999995</v>
       </c>
       <c r="O13" s="4"/>
@@ -2519,11 +2567,17 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="4">
+        <f t="shared" ref="AA13" si="54">AA8-AA12</f>
+        <v>3715</v>
+      </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
+      <c r="AE13" s="4">
+        <f t="shared" ref="AE13" si="55">AE8-AE12</f>
+        <v>3573</v>
+      </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
@@ -2532,71 +2586,71 @@
         <v>8549</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" ref="AK13:BA13" si="50">AK8-AK12</f>
+        <f t="shared" ref="AK13:BA13" si="56">AK8-AK12</f>
         <v>7436</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>8095</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>12716</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>11596</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>10404</v>
       </c>
       <c r="AP13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>8520</v>
       </c>
       <c r="AQ13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>12781.479799999997</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>13140.958036400003</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>13477.458762671202</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>13796.224745372372</v>
       </c>
       <c r="AU13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>14101.457935061157</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>14396.527716984698</v>
       </c>
       <c r="AW13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>14684.137512588057</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>14966.458061686928</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>15245.234049182165</v>
       </c>
       <c r="AZ13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>15521.86940741826</v>
       </c>
       <c r="BA13" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>15797.495559067374</v>
       </c>
     </row>
@@ -2655,11 +2709,15 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="AA14" s="5">
+        <v>762</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="5">
+        <v>719</v>
+      </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -2691,43 +2749,43 @@
         <v>2556.2959599999995</v>
       </c>
       <c r="AR14" s="5">
-        <f t="shared" ref="AR14:BA14" si="51">AR13*0.2</f>
+        <f t="shared" ref="AR14:BA14" si="57">AR13*0.2</f>
         <v>2628.1916072800009</v>
       </c>
       <c r="AS14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2695.4917525342407</v>
       </c>
       <c r="AT14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2759.2449490744748</v>
       </c>
       <c r="AU14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2820.2915870122315</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2879.3055433969398</v>
       </c>
       <c r="AW14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2936.8275025176117</v>
       </c>
       <c r="AX14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2993.2916123373857</v>
       </c>
       <c r="AY14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>3049.0468098364331</v>
       </c>
       <c r="AZ14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>3104.3738814836524</v>
       </c>
       <c r="BA14" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>3159.4991118134749</v>
       </c>
     </row>
@@ -2786,11 +2844,15 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="5">
+        <v>-27</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="AE15" s="5">
+        <v>69</v>
+      </c>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -2822,43 +2884,43 @@
         <v>-45.45</v>
       </c>
       <c r="AR15" s="5">
-        <f t="shared" ref="AR15:AV15" si="52">AQ15*1.01</f>
+        <f t="shared" ref="AR15:AV15" si="58">AQ15*1.01</f>
         <v>-45.904500000000006</v>
       </c>
       <c r="AS15" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>-46.363545000000009</v>
       </c>
       <c r="AT15" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>-46.827180450000007</v>
       </c>
       <c r="AU15" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>-47.295452254500006</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>-47.768406777045008</v>
       </c>
       <c r="AW15" s="5">
-        <f t="shared" ref="AW15" si="53">AV15*1.01</f>
+        <f t="shared" ref="AW15" si="59">AV15*1.01</f>
         <v>-48.246090844815456</v>
       </c>
       <c r="AX15" s="5">
-        <f t="shared" ref="AX15" si="54">AW15*1.01</f>
+        <f t="shared" ref="AX15" si="60">AW15*1.01</f>
         <v>-48.728551753263609</v>
       </c>
       <c r="AY15" s="5">
-        <f t="shared" ref="AY15" si="55">AX15*1.01</f>
+        <f t="shared" ref="AY15" si="61">AX15*1.01</f>
         <v>-49.215837270796243</v>
       </c>
       <c r="AZ15" s="5">
-        <f t="shared" ref="AZ15" si="56">AY15*1.01</f>
+        <f t="shared" ref="AZ15" si="62">AY15*1.01</f>
         <v>-49.707995643504205</v>
       </c>
       <c r="BA15" s="5">
-        <f t="shared" ref="BA15" si="57">AZ15*1.01</f>
+        <f t="shared" ref="BA15" si="63">AZ15*1.01</f>
         <v>-50.205075599939249</v>
       </c>
     </row>
@@ -2867,51 +2929,51 @@
         <v>30</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:N16" si="58">C13-C14-C15</f>
+        <f t="shared" ref="C16:N16" si="64">C13-C14-C15</f>
         <v>1046</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2390</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2534</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2044</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2157</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2418</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2351</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-194</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>294</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>-758</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4045</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2604.1748779999998</v>
       </c>
       <c r="O16" s="4"/>
@@ -2926,11 +2988,17 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="4">
+        <f t="shared" ref="AA16" si="65">AA13-AA14-AA15</f>
+        <v>2980</v>
+      </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
+      <c r="AE16" s="4">
+        <f t="shared" ref="AE16" si="66">AE13-AE14-AE15</f>
+        <v>2785</v>
+      </c>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
@@ -2943,67 +3011,67 @@
         <v>6732</v>
       </c>
       <c r="AL16" s="4">
-        <f t="shared" ref="AL16:AM16" si="59">AL13-AL14-AL15</f>
+        <f t="shared" ref="AL16:AM16" si="67">AL13-AL14-AL15</f>
         <v>6427</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>10019</v>
       </c>
       <c r="AN16" s="4">
-        <f t="shared" ref="AN16:AO16" si="60">AN13-AN14-AN15</f>
+        <f t="shared" ref="AN16:AO16" si="68">AN13-AN14-AN15</f>
         <v>9934</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>10128</v>
       </c>
       <c r="AP16" s="4">
-        <f t="shared" ref="AP16:AV16" si="61">AP13-AP14-AP15</f>
+        <f t="shared" ref="AP16:AV16" si="69">AP13-AP14-AP15</f>
         <v>6009</v>
       </c>
       <c r="AQ16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>10270.633839999999</v>
       </c>
       <c r="AR16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>10558.670929120002</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>10828.330555136961</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>11083.806976747897</v>
       </c>
       <c r="AU16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>11328.461800303427</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>11564.990580364802</v>
       </c>
       <c r="AW16" s="4">
-        <f t="shared" ref="AW16:BA16" si="62">AW13-AW14-AW15</f>
+        <f t="shared" ref="AW16:BA16" si="70">AW13-AW14-AW15</f>
         <v>11795.556100915261</v>
       </c>
       <c r="AX16" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>12021.895001102806</v>
       </c>
       <c r="AY16" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>12245.403076616529</v>
       </c>
       <c r="AZ16" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>12467.203521578112</v>
       </c>
       <c r="BA16" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>12688.201522853838</v>
       </c>
       <c r="BB16" s="3">
@@ -3011,315 +3079,315 @@
         <v>12561.3195076253</v>
       </c>
       <c r="BC16" s="3">
-        <f t="shared" ref="BC16:DN16" si="63">BB16*(1+$BD$24)</f>
+        <f t="shared" ref="BC16:DN16" si="71">BB16*(1+$BD$24)</f>
         <v>12435.706312549046</v>
       </c>
       <c r="BD16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>12311.349249423556</v>
       </c>
       <c r="BE16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>12188.23575692932</v>
       </c>
       <c r="BF16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>12066.353399360027</v>
       </c>
       <c r="BG16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11945.689865366427</v>
       </c>
       <c r="BH16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11826.232966712761</v>
       </c>
       <c r="BI16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11707.970637045633</v>
       </c>
       <c r="BJ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11590.890930675178</v>
       </c>
       <c r="BK16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11474.982021368425</v>
       </c>
       <c r="BL16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11360.23220115474</v>
       </c>
       <c r="BM16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11246.629879143193</v>
       </c>
       <c r="BN16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11134.16358035176</v>
       </c>
       <c r="BO16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>11022.821944548243</v>
       </c>
       <c r="BP16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10912.593725102761</v>
       </c>
       <c r="BQ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10803.467787851732</v>
       </c>
       <c r="BR16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10695.433109973215</v>
       </c>
       <c r="BS16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10588.478778873483</v>
       </c>
       <c r="BT16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10482.593991084748</v>
       </c>
       <c r="BU16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10377.7680511739</v>
       </c>
       <c r="BV16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10273.990370662161</v>
       </c>
       <c r="BW16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10171.250466955538</v>
       </c>
       <c r="BX16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>10069.537962285984</v>
       </c>
       <c r="BY16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9968.8425826631246</v>
       </c>
       <c r="BZ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9869.1541568364937</v>
       </c>
       <c r="CA16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9770.4626152681285</v>
       </c>
       <c r="CB16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9672.7579891154473</v>
       </c>
       <c r="CC16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9576.0304092242932</v>
       </c>
       <c r="CD16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9480.270105132051</v>
       </c>
       <c r="CE16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9385.4674040807295</v>
       </c>
       <c r="CF16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9291.6127300399221</v>
       </c>
       <c r="CG16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9198.6966027395229</v>
       </c>
       <c r="CH16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9106.7096367121267</v>
       </c>
       <c r="CI16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>9015.6425403450048</v>
       </c>
       <c r="CJ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8925.4861149415556</v>
       </c>
       <c r="CK16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8836.2312537921407</v>
       </c>
       <c r="CL16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8747.868941254219</v>
       </c>
       <c r="CM16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8660.3902518416762</v>
       </c>
       <c r="CN16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8573.7863493232599</v>
       </c>
       <c r="CO16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8488.0484858300279</v>
       </c>
       <c r="CP16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8403.1680009717275</v>
       </c>
       <c r="CQ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8319.1363209620104</v>
       </c>
       <c r="CR16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8235.9449577523901</v>
       </c>
       <c r="CS16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8153.5855081748659</v>
       </c>
       <c r="CT16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>8072.0496530931168</v>
       </c>
       <c r="CU16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7991.3291565621857</v>
       </c>
       <c r="CV16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7911.4158649965639</v>
       </c>
       <c r="CW16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7832.3017063465977</v>
       </c>
       <c r="CX16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7753.9786892831316</v>
       </c>
       <c r="CY16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7676.4389023903004</v>
       </c>
       <c r="CZ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7599.6745133663972</v>
       </c>
       <c r="DA16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7523.6777682327329</v>
       </c>
       <c r="DB16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7448.4409905504053</v>
       </c>
       <c r="DC16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7373.9565806449009</v>
       </c>
       <c r="DD16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7300.2170148384521</v>
       </c>
       <c r="DE16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7227.2148446900674</v>
       </c>
       <c r="DF16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7154.9426962431662</v>
       </c>
       <c r="DG16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7083.3932692807348</v>
       </c>
       <c r="DH16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>7012.5593365879276</v>
       </c>
       <c r="DI16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6942.4337432220482</v>
       </c>
       <c r="DJ16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6873.0094057898277</v>
       </c>
       <c r="DK16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6804.2793117319297</v>
       </c>
       <c r="DL16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6736.2365186146108</v>
       </c>
       <c r="DM16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6668.8741534284645</v>
       </c>
       <c r="DN16" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>6602.1854118941801</v>
       </c>
       <c r="DO16" s="3">
-        <f t="shared" ref="DO16:EB16" si="64">DN16*(1+$BD$24)</f>
+        <f t="shared" ref="DO16:EB16" si="72">DN16*(1+$BD$24)</f>
         <v>6536.1635577752386</v>
       </c>
       <c r="DP16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6470.8019221974864</v>
       </c>
       <c r="DQ16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6406.0939029755118</v>
       </c>
       <c r="DR16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6342.0329639457568</v>
       </c>
       <c r="DS16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6278.6126343062988</v>
       </c>
       <c r="DT16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6215.8265079632356</v>
       </c>
       <c r="DU16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6153.6682428836029</v>
       </c>
       <c r="DV16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6092.1315604547672</v>
       </c>
       <c r="DW16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>6031.2102448502192</v>
       </c>
       <c r="DX16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>5970.8981424017165</v>
       </c>
       <c r="DY16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>5911.1891609776994</v>
       </c>
       <c r="DZ16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>5852.0772693679228</v>
       </c>
       <c r="EA16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>5793.5564966742431</v>
       </c>
       <c r="EB16" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>5735.6209317075009</v>
       </c>
     </row>
@@ -3329,51 +3397,51 @@
       </c>
       <c r="C17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="D17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="E17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="F17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="G17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="H17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="I17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="J17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="K17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="L17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="M17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="N17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -3387,85 +3455,91 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="AA17" s="5">
+        <f>Main!$D$4</f>
+        <v>961.4</v>
+      </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+      <c r="AE17" s="5">
+        <f>Main!$D$4</f>
+        <v>961.4</v>
+      </c>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AJ17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AK17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AL17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AM17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AN17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AO17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AP17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AQ17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AR17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AS17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AT17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AU17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AV17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AW17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AX17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AY17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="AZ17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
       <c r="BA17" s="5">
         <f>Main!$D$4</f>
-        <v>995</v>
+        <v>961.4</v>
       </c>
     </row>
     <row r="18" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3473,52 +3547,52 @@
         <v>33</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:N18" si="65">C16/C17</f>
-        <v>1.0512562814070352</v>
+        <f t="shared" ref="C18:N18" si="73">C16/C17</f>
+        <v>1.087996671520699</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.4020100502512562</v>
+        <f t="shared" si="73"/>
+        <v>2.4859579779488246</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.5467336683417083</v>
+        <f t="shared" si="73"/>
+        <v>2.6357395464946953</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.0542713567839197</v>
+        <f t="shared" si="73"/>
+        <v>2.1260661535261076</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.1678391959798997</v>
+        <f t="shared" si="73"/>
+        <v>2.2436030788433534</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.430150753768844</v>
+        <f t="shared" si="73"/>
+        <v>2.5150821718327441</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.3628140703517588</v>
+        <f t="shared" si="73"/>
+        <v>2.4453921364676514</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="65"/>
-        <v>-0.19497487437185929</v>
+        <f t="shared" si="73"/>
+        <v>-0.20178905762429791</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="65"/>
-        <v>0.29547738693467335</v>
+        <f t="shared" si="73"/>
+        <v>0.30580403578115251</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="65"/>
-        <v>-0.76180904522613069</v>
+        <f t="shared" si="73"/>
+        <v>-0.78843353442895781</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="65"/>
-        <v>4.0653266331658289</v>
+        <f t="shared" si="73"/>
+        <v>4.207405866444768</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="65"/>
-        <v>2.6172611839195978</v>
+        <f t="shared" si="73"/>
+        <v>2.7087319305179944</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -3532,85 +3606,91 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="AA18" s="6">
+        <f t="shared" ref="AA18" si="74">AA16/AA17</f>
+        <v>3.0996463490742667</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
+      <c r="AE18" s="6">
+        <f t="shared" ref="AE18" si="75">AE16/AE17</f>
+        <v>2.8968171416684001</v>
+      </c>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AJ18" s="6">
         <f>SUM(C18:F18)</f>
-        <v>8.0542713567839197</v>
+        <v>8.335760349490327</v>
       </c>
       <c r="AK18" s="6">
         <f>SUM(G18:J18)</f>
-        <v>6.7658291457286426</v>
+        <v>7.0022883295194509</v>
       </c>
       <c r="AL18" s="6">
-        <f t="shared" ref="AL18:AM18" si="66">AL16/AL17</f>
-        <v>6.4592964824120607</v>
+        <f t="shared" ref="AL18:AM18" si="76">AL16/AL17</f>
+        <v>6.6850426461410448</v>
       </c>
       <c r="AM18" s="6">
-        <f t="shared" si="66"/>
-        <v>10.069346733668342</v>
+        <f t="shared" si="76"/>
+        <v>10.421260661535261</v>
       </c>
       <c r="AN18" s="6">
-        <f t="shared" ref="AN18:AO18" si="67">AN16/AN17</f>
-        <v>9.9839195979899493</v>
+        <f t="shared" ref="AN18:AO18" si="77">AN16/AN17</f>
+        <v>10.332847930101934</v>
       </c>
       <c r="AO18" s="6">
-        <f t="shared" si="67"/>
-        <v>10.17889447236181</v>
+        <f t="shared" si="77"/>
+        <v>10.534636987726232</v>
       </c>
       <c r="AP18" s="6">
-        <f t="shared" ref="AP18:AV18" si="68">AP16/AP17</f>
-        <v>6.0391959798994979</v>
+        <f t="shared" ref="AP18:AV18" si="78">AP16/AP17</f>
+        <v>6.2502600374453925</v>
       </c>
       <c r="AQ18" s="6">
-        <f t="shared" si="68"/>
-        <v>10.322245065326632</v>
+        <f t="shared" si="78"/>
+        <v>10.682997545246515</v>
       </c>
       <c r="AR18" s="6">
-        <f t="shared" si="68"/>
-        <v>10.611729577005027</v>
+        <f t="shared" si="78"/>
+        <v>10.982599260578326</v>
       </c>
       <c r="AS18" s="6">
-        <f t="shared" si="68"/>
-        <v>10.88274427651956</v>
+        <f t="shared" si="78"/>
+        <v>11.263085661677721</v>
       </c>
       <c r="AT18" s="6">
-        <f t="shared" si="68"/>
-        <v>11.139504499244119</v>
+        <f t="shared" si="78"/>
+        <v>11.52881940581225</v>
       </c>
       <c r="AU18" s="6">
-        <f t="shared" si="68"/>
-        <v>11.385388744023544</v>
+        <f t="shared" si="78"/>
+        <v>11.783297067093226</v>
       </c>
       <c r="AV18" s="6">
-        <f t="shared" si="68"/>
-        <v>11.623106110919398</v>
+        <f t="shared" si="78"/>
+        <v>12.02932242600874</v>
       </c>
       <c r="AW18" s="6">
-        <f t="shared" ref="AW18:BA18" si="69">AW16/AW17</f>
-        <v>11.854830252176141</v>
+        <f t="shared" ref="AW18:BA18" si="79">AW16/AW17</f>
+        <v>12.269145101846537</v>
       </c>
       <c r="AX18" s="6">
-        <f t="shared" si="69"/>
-        <v>12.082306533771664</v>
+        <f t="shared" si="79"/>
+        <v>12.504571459437077</v>
       </c>
       <c r="AY18" s="6">
-        <f t="shared" si="69"/>
-        <v>12.306937765443747</v>
+        <f t="shared" si="79"/>
+        <v>12.737053335361482</v>
       </c>
       <c r="AZ18" s="6">
-        <f t="shared" si="69"/>
-        <v>12.529852785505641</v>
+        <f t="shared" si="79"/>
+        <v>12.967759019740081</v>
       </c>
       <c r="BA18" s="6">
-        <f t="shared" si="69"/>
-        <v>12.751961329501345</v>
+        <f t="shared" si="79"/>
+        <v>13.197630042494112</v>
       </c>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.3">
@@ -3618,23 +3698,23 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:G20" si="70">C5/C3</f>
+        <f t="shared" ref="C20:G20" si="80">C5/C3</f>
         <v>0.16385495443087067</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0.18196409140369968</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0.20278841049425833</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0.17008255423318316</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0.190635930959344</v>
       </c>
       <c r="H20" s="7">
@@ -3642,27 +3722,27 @@
         <v>0.2144481419855796</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" ref="I20:N20" si="71">I5/I3</f>
+        <f t="shared" ref="I20:N20" si="81">I5/I3</f>
         <v>0.20576212894313986</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.15911892558230065</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.18291601699837964</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.19871259983311479</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.23424464487034949</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.21</v>
       </c>
       <c r="O20" s="7"/>
@@ -3677,24 +3757,30 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="AA20" s="7">
+        <f t="shared" ref="AA20" si="82">AA5/AA3</f>
+        <v>0.20965267122332265</v>
+      </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7">
+        <f t="shared" ref="AE20" si="83">AE5/AE3</f>
+        <v>0.20056792367105861</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AJ20" s="7">
-        <f t="shared" ref="AJ20:AV20" si="72">AJ5/AJ3</f>
+        <f t="shared" ref="AJ20:AV20" si="84">AJ5/AJ3</f>
         <v>0.17948438955722243</v>
       </c>
       <c r="AK20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19372326704897366</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.20366575499040698</v>
       </c>
       <c r="AM20" s="7">
@@ -3714,47 +3800,47 @@
         <v>0.19407069920295345</v>
       </c>
       <c r="AQ20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19</v>
       </c>
       <c r="AR20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19</v>
       </c>
       <c r="AS20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19</v>
       </c>
       <c r="AT20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19</v>
       </c>
       <c r="AU20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="AV20" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>0.19</v>
       </c>
       <c r="AW20" s="7">
-        <f t="shared" ref="AW20:BA20" si="73">AW5/AW3</f>
+        <f t="shared" ref="AW20:BA20" si="85">AW5/AW3</f>
         <v>0.19</v>
       </c>
       <c r="AX20" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0.19</v>
       </c>
       <c r="AY20" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0.19</v>
       </c>
       <c r="AZ20" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="BA20" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0.19</v>
       </c>
     </row>
@@ -3763,23 +3849,23 @@
         <v>35</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:G21" si="74">C8/C3</f>
+        <f t="shared" ref="C21:G21" si="86">C8/C3</f>
         <v>1.4654145544197901E-2</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>4.0179542981501636E-2</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>4.4983375708977119E-2</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>2.1589103882913619E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>3.5667182751304545E-2</v>
       </c>
       <c r="H21" s="7">
@@ -3787,27 +3873,27 @@
         <v>6.8968386023294512E-2</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" ref="I21:N21" si="75">I8/I3</f>
+        <f t="shared" ref="I21:N21" si="87">I8/I3</f>
         <v>6.4950807656527498E-2</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-1.7971841951599298E-2</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>2.0086214803265157E-2</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-7.2356657527714863E-2</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>0.12468996617812853</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>7.9690294636901374E-2</v>
       </c>
       <c r="O21" s="7"/>
@@ -3822,24 +3908,30 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="AA21" s="7">
+        <f t="shared" ref="AA21" si="88">AA8/AA3</f>
+        <v>8.6878690658855257E-2</v>
+      </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="7">
+        <f t="shared" ref="AE21" si="89">AE8/AE3</f>
+        <v>7.6169922762380743E-2</v>
+      </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AJ21" s="7">
-        <f t="shared" ref="AJ21:AV21" si="76">AJ8/AJ3</f>
+        <f t="shared" ref="AJ21:AV21" si="90">AJ8/AJ3</f>
         <v>3.0228019231684677E-2</v>
       </c>
       <c r="AK21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>3.9938209083556185E-2</v>
       </c>
       <c r="AL21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>5.4161734089888558E-2</v>
       </c>
       <c r="AM21" s="7">
@@ -3859,47 +3951,47 @@
         <v>6.8202430618538007E-2</v>
       </c>
       <c r="AQ21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.4131731415584536E-2</v>
       </c>
       <c r="AR21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.4131731415584564E-2</v>
       </c>
       <c r="AS21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.413173141558455E-2</v>
       </c>
       <c r="AT21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.4131731415584564E-2</v>
       </c>
       <c r="AU21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.4131731415584592E-2</v>
       </c>
       <c r="AV21" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="90"/>
         <v>6.4131731415584578E-2</v>
       </c>
       <c r="AW21" s="7">
-        <f t="shared" ref="AW21:BA21" si="77">AW8/AW3</f>
+        <f t="shared" ref="AW21:BA21" si="91">AW8/AW3</f>
         <v>6.413173141558455E-2</v>
       </c>
       <c r="AX21" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>6.4131731415584578E-2</v>
       </c>
       <c r="AY21" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>6.4131731415584564E-2</v>
       </c>
       <c r="AZ21" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>6.4131731415584564E-2</v>
       </c>
       <c r="BA21" s="7">
-        <f t="shared" si="77"/>
+        <f t="shared" si="91"/>
         <v>6.4131731415584536E-2</v>
       </c>
     </row>
@@ -3912,31 +4004,31 @@
         <v>-0.11509274873524455</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:N22" si="78">H6/D6-1</f>
+        <f t="shared" ref="H22:N22" si="92">H6/D6-1</f>
         <v>-5.1444043321299593E-2</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-0.22291021671826627</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-7.9096045197740161E-2</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-6.1457837065269194E-2</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-0.37678401522359661</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-0.18924302788844627</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="O22" s="8"/>
@@ -3955,7 +4047,10 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
+      <c r="AE22" s="8">
+        <f t="shared" ref="AE22" si="93">AE6/AA6-1</f>
+        <v>0.12395363811976812</v>
+      </c>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
@@ -3964,7 +4059,7 @@
         <v>-0.12010362694300514</v>
       </c>
       <c r="AL22" s="7">
-        <f t="shared" ref="AL22:AV22" si="79">AL6/AK6-1</f>
+        <f t="shared" ref="AL22:AV22" si="94">AL6/AK6-1</f>
         <v>-0.17112236485690735</v>
       </c>
       <c r="AM22" s="7">
@@ -3988,43 +4083,43 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR22" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS22" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT22" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AU22" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AV22" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AW22" s="7">
-        <f t="shared" ref="AW22" si="80">AW6/AV6-1</f>
+        <f t="shared" ref="AW22" si="95">AW6/AV6-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AX22" s="7">
-        <f t="shared" ref="AX22" si="81">AX6/AW6-1</f>
+        <f t="shared" ref="AX22" si="96">AX6/AW6-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AY22" s="7">
-        <f t="shared" ref="AY22" si="82">AY6/AX6-1</f>
+        <f t="shared" ref="AY22" si="97">AY6/AX6-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AZ22" s="7">
-        <f t="shared" ref="AZ22" si="83">AZ6/AY6-1</f>
+        <f t="shared" ref="AZ22" si="98">AZ6/AY6-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BA22" s="7">
-        <f t="shared" ref="BA22" si="84">BA6/AZ6-1</f>
+        <f t="shared" ref="BA22" si="99">BA6/AZ6-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -4033,19 +4128,19 @@
         <v>36</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23:J23" si="85">G3/C3-1</f>
+        <f t="shared" ref="G23:J23" si="100">G3/C3-1</f>
         <v>-3.3823651624698692E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="100"/>
         <v>-1.9042437431991299E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="100"/>
         <v>-8.8849152021457378E-3</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="85"/>
+        <f t="shared" si="100"/>
         <v>-0.19721867756972833</v>
       </c>
       <c r="K23" s="7">
@@ -4080,77 +4175,80 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7">
+        <f>AE3/AA3-1</f>
+        <v>2.3387734226065993E-2</v>
+      </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7">
-        <f t="shared" ref="AK23:AP23" si="86">AK3/AJ3-1</f>
+        <f t="shared" ref="AK23:AP23" si="101">AK3/AJ3-1</f>
         <v>-6.6726057300627639E-2</v>
       </c>
       <c r="AL23" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>-0.10749287728528023</v>
       </c>
       <c r="AM23" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>3.6894313589419081E-2</v>
       </c>
       <c r="AN23" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>0.23409498913420057</v>
       </c>
       <c r="AO23" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>9.63856190385044E-2</v>
       </c>
       <c r="AP23" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="101"/>
         <v>9.0781066328371463E-2</v>
       </c>
       <c r="AQ23" s="7">
-        <f t="shared" ref="AQ23:AV23" si="87">AQ3/AP3-1</f>
+        <f t="shared" ref="AQ23:AV23" si="102">AQ3/AP3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AR23" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AS23" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT23" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AU23" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AV23" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="102"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AW23" s="7">
-        <f t="shared" ref="AW23" si="88">AW3/AV3-1</f>
+        <f t="shared" ref="AW23" si="103">AW3/AV3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AX23" s="7">
-        <f t="shared" ref="AX23" si="89">AX3/AW3-1</f>
+        <f t="shared" ref="AX23" si="104">AX3/AW3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AY23" s="7">
-        <f t="shared" ref="AY23" si="90">AY3/AX3-1</f>
+        <f t="shared" ref="AY23" si="105">AY3/AX3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AZ23" s="7">
-        <f t="shared" ref="AZ23" si="91">AZ3/AY3-1</f>
+        <f t="shared" ref="AZ23" si="106">AZ3/AY3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BA23" s="7">
-        <f t="shared" ref="BA23" si="92">BA3/AZ3-1</f>
+        <f t="shared" ref="BA23" si="107">BA3/AZ3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -4167,23 +4265,23 @@
         <v>29</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" ref="C25:G25" si="93">C14/C13</f>
+        <f t="shared" ref="C25:G25" si="108">C14/C13</f>
         <v>0.29568527918781728</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="108"/>
         <v>0.17989601386481802</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="108"/>
         <v>3.8022813688212927E-2</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="108"/>
         <v>-0.41906721536351166</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="108"/>
         <v>6.0035056967572303E-2</v>
       </c>
       <c r="H25" s="7">
@@ -4191,27 +4289,27 @@
         <v>0.17902289033139734</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" ref="I25:N25" si="94">I14/I13</f>
+        <f t="shared" ref="I25:N25" si="109">I14/I13</f>
         <v>0.10495739736638265</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="109"/>
         <v>0.45915492957746479</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="109"/>
         <v>0.55520995334370138</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="109"/>
         <v>0.12556053811659193</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="109"/>
         <v>0.18083588175331294</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="109"/>
         <v>0.18</v>
       </c>
       <c r="O25" s="7"/>
@@ -4226,84 +4324,90 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="AA25" s="7">
+        <f t="shared" ref="AA25" si="110">AA14/AA13</f>
+        <v>0.20511440107671602</v>
+      </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
+      <c r="AE25" s="7">
+        <f t="shared" ref="AE25" si="111">AE14/AE13</f>
+        <v>0.20123145815841029</v>
+      </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AJ25" s="7">
-        <f t="shared" ref="AJ25:AV25" si="95">AJ14/AJ13</f>
+        <f t="shared" ref="AJ25:AV25" si="112">AJ14/AJ13</f>
         <v>5.5445081296058019E-2</v>
       </c>
       <c r="AK25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.10341581495427649</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.21914762198888202</v>
       </c>
       <c r="AM25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.21791443850267381</v>
       </c>
       <c r="AN25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.1628147637116247</v>
       </c>
       <c r="AO25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>5.4113802383698575E-2</v>
       </c>
       <c r="AP25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.3</v>
       </c>
       <c r="AQ25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.2</v>
       </c>
       <c r="AR25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.2</v>
       </c>
       <c r="AS25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AT25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="AU25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.2</v>
       </c>
       <c r="AV25" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>0.2</v>
       </c>
       <c r="AW25" s="7">
-        <f t="shared" ref="AW25:BA25" si="96">AW14/AW13</f>
+        <f t="shared" ref="AW25:BA25" si="113">AW14/AW13</f>
         <v>0.2</v>
       </c>
       <c r="AX25" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.2</v>
       </c>
       <c r="AY25" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.2</v>
       </c>
       <c r="AZ25" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.2</v>
       </c>
       <c r="BA25" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>0.2</v>
       </c>
       <c r="BC25" s="1" t="s">
@@ -4331,47 +4435,47 @@
         <v>6.5708191362641624E-2</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:N27" si="97">D6/D3</f>
+        <f t="shared" ref="D27:N27" si="114">D6/D3</f>
         <v>6.0282916213275299E-2</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>7.2196921013662652E-2</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>6.4532930545066272E-2</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>6.0181203050633639E-2</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>5.8291735995562949E-2</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>5.6606433061765285E-2</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>7.4028417569584115E-2</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>6.0228071784524134E-2</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>7.8078436047204672E-2</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>4.5885005636978581E-2</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>5.295620580053266E-2</v>
       </c>
       <c r="O27" s="7"/>
@@ -4386,24 +4490,30 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
+      <c r="AA27" s="7">
+        <f t="shared" ref="AA27" si="115">AA6/AA3</f>
+        <v>7.2209048216859625E-2</v>
+      </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="7">
+        <f t="shared" ref="AE27" si="116">AE6/AE3</f>
+        <v>7.9304861426624268E-2</v>
+      </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AJ27" s="7">
-        <f t="shared" ref="AJ27:AV27" si="98">AJ6/AJ3</f>
+        <f t="shared" ref="AJ27:AV27" si="117">AJ6/AJ3</f>
         <v>6.5624383708831752E-2</v>
       </c>
       <c r="AK27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.1871069755240933E-2</v>
       </c>
       <c r="AL27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>5.7460097154753642E-2</v>
       </c>
       <c r="AM27" s="7">
@@ -4423,47 +4533,47 @@
         <v>6.9205407539398855E-2</v>
       </c>
       <c r="AQ27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AR27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AS27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AT27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AU27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AV27" s="7">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AW27" s="7">
-        <f t="shared" ref="AW27:BA27" si="99">AW6/AW3</f>
+        <f t="shared" ref="AW27:BA27" si="118">AW6/AW3</f>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AX27" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="118"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AY27" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="118"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="AZ27" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="118"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="BA27" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="118"/>
         <v>6.9205407539398842E-2</v>
       </c>
       <c r="BC27" s="1" t="s">
@@ -4471,7 +4581,7 @@
       </c>
       <c r="BD27" s="5">
         <f>Main!D8</f>
-        <v>-102595</v>
+        <v>-105189</v>
       </c>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.3">
@@ -4480,7 +4590,7 @@
       </c>
       <c r="BD28" s="5">
         <f>BD26+BD27</f>
-        <v>46149.852022077655</v>
+        <v>43555.852022077655</v>
       </c>
     </row>
     <row r="29" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4492,119 +4602,127 @@
         <v>2.8975871907809082E-2</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" ref="D29:N29" si="100">D16/D3</f>
+        <f t="shared" ref="D29:N29" si="119">D16/D3</f>
         <v>6.5016322089227419E-2</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>7.0799921768042243E-2</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>5.3230552878981222E-2</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>6.1844142439360053E-2</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>6.7054908485856907E-2</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>6.6275759027993125E-2</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>-6.293388697852462E-3</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>8.9883518297716233E-3</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>-4.5178209560138273E-2</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>0.11400789177001128</v>
       </c>
       <c r="N29" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>6.7147346762072749E-2</v>
       </c>
+      <c r="AA29" s="7">
+        <f t="shared" ref="AA29" si="120">AA16/AA3</f>
+        <v>6.9279769377412009E-2</v>
+      </c>
+      <c r="AE29" s="7">
+        <f t="shared" ref="AE29" si="121">AE16/AE3</f>
+        <v>6.3266696955929125E-2</v>
+      </c>
       <c r="AJ29" s="7">
-        <f t="shared" ref="AJ29:BA29" si="101">AJ16/AJ3</f>
+        <f t="shared" ref="AJ29:BA29" si="122">AJ16/AJ3</f>
         <v>5.4498840522546908E-2</v>
       </c>
       <c r="AK29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>4.9053826591954064E-2</v>
       </c>
       <c r="AL29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.2471731232395805E-2</v>
       </c>
       <c r="AM29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>7.8887279140814462E-2</v>
       </c>
       <c r="AN29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>6.338086579257983E-2</v>
       </c>
       <c r="AO29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.8937861523958052E-2</v>
       </c>
       <c r="AP29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>3.2057916582196096E-2</v>
       </c>
       <c r="AQ29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.4251151801835241E-2</v>
       </c>
       <c r="AR29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.5220406305972199E-2</v>
       </c>
       <c r="AS29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.6069989411763714E-2</v>
       </c>
       <c r="AT29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.6824621198537338E-2</v>
       </c>
       <c r="AU29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.7503882248122008E-2</v>
       </c>
       <c r="AV29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.8123282252603166E-2</v>
       </c>
       <c r="AW29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.8695106436308632E-2</v>
       </c>
       <c r="AX29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.9229085989065518E-2</v>
       </c>
       <c r="AY29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>5.9732929102444737E-2</v>
       </c>
       <c r="AZ29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>6.0212741592530407E-2</v>
       </c>
       <c r="BA29" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>6.0673360066470845E-2</v>
       </c>
       <c r="BC29" s="1" t="s">
@@ -4612,7 +4730,7 @@
       </c>
       <c r="BD29" s="9">
         <f>BD28/AV17</f>
-        <v>46.381760826208698</v>
+        <v>45.304609966795979</v>
       </c>
     </row>
     <row r="30" spans="2:56" x14ac:dyDescent="0.3">
@@ -4621,7 +4739,7 @@
       </c>
       <c r="BD30" s="9">
         <f>Main!D3</f>
-        <v>45.55</v>
+        <v>45.63</v>
       </c>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.3">
@@ -4630,7 +4748,7 @@
       </c>
       <c r="BD31" s="7">
         <f>BD29/BD30-1</f>
-        <v>1.8260391354746552E-2</v>
+        <v>-7.1310548587337763E-3</v>
       </c>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.3">
